--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/80/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/80/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>5.43525</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>5435.25</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.666600000000001</v>
+        <v>6.240460000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>6666.6</v>
+        <v>6240.46</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>6.93138</v>
+        <v>6.99302</v>
       </c>
       <c r="C9" t="n">
-        <v>6931.38</v>
+        <v>6993.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247925</v>
       </c>
       <c r="B10" t="n">
-        <v>7.14036</v>
+        <v>7.594609999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>7140.36</v>
+        <v>7594.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278892</v>
+        <v>0.27885</v>
       </c>
       <c r="B11" t="n">
-        <v>7.260149999999999</v>
+        <v>8.117660000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>7260.15</v>
+        <v>8117.66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309817</v>
+        <v>0.309775</v>
       </c>
       <c r="B12" t="n">
-        <v>7.393350000000001</v>
+        <v>8.443490000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>7393.35</v>
+        <v>8443.49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340742</v>
+        <v>0.3407</v>
       </c>
       <c r="B13" t="n">
-        <v>7.49919</v>
+        <v>8.57067</v>
       </c>
       <c r="C13" t="n">
-        <v>7499.19</v>
+        <v>8570.67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371667</v>
+        <v>0.371625</v>
       </c>
       <c r="B14" t="n">
-        <v>7.588100000000001</v>
+        <v>8.575229999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>7588.1</v>
+        <v>8575.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402592</v>
+        <v>0.40255</v>
       </c>
       <c r="B15" t="n">
-        <v>7.66037</v>
+        <v>8.556559999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>7660.37</v>
+        <v>8556.559999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433517</v>
+        <v>0.433475</v>
       </c>
       <c r="B16" t="n">
-        <v>7.733890000000001</v>
+        <v>8.53247</v>
       </c>
       <c r="C16" t="n">
-        <v>7733.89</v>
+        <v>8532.469999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464442</v>
+        <v>0.4644</v>
       </c>
       <c r="B17" t="n">
-        <v>7.795170000000001</v>
+        <v>8.50746</v>
       </c>
       <c r="C17" t="n">
-        <v>7795.17</v>
+        <v>8507.459999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495367</v>
+        <v>0.495325</v>
       </c>
       <c r="B18" t="n">
-        <v>7.854640000000001</v>
+        <v>8.48015</v>
       </c>
       <c r="C18" t="n">
-        <v>7854.64</v>
+        <v>8480.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526292</v>
+        <v>0.52625</v>
       </c>
       <c r="B19" t="n">
-        <v>7.905040000000001</v>
+        <v>8.451840000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>7905.04</v>
+        <v>8451.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557217</v>
+        <v>0.557176</v>
       </c>
       <c r="B20" t="n">
-        <v>7.95066</v>
+        <v>8.422000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>7950.66</v>
+        <v>8422</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5881420000000001</v>
+        <v>0.588101</v>
       </c>
       <c r="B21" t="n">
-        <v>7.99302</v>
+        <v>8.390549999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>7993.02</v>
+        <v>8390.549999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619184</v>
+        <v>0.619143</v>
       </c>
       <c r="B22" t="n">
-        <v>8.03265</v>
+        <v>8.357670000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>8032.65</v>
+        <v>8357.67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650357</v>
+        <v>0.650315</v>
       </c>
       <c r="B23" t="n">
-        <v>8.068479999999999</v>
+        <v>8.323549999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>8068.48</v>
+        <v>8323.549999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6815290000000001</v>
+        <v>0.681488</v>
       </c>
       <c r="B24" t="n">
-        <v>8.10139</v>
+        <v>8.28823</v>
       </c>
       <c r="C24" t="n">
-        <v>8101.39</v>
+        <v>8288.23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712706</v>
+        <v>0.712665</v>
       </c>
       <c r="B25" t="n">
-        <v>8.131680000000001</v>
+        <v>8.251629999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>8131.68</v>
+        <v>8251.629999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743879</v>
+        <v>0.743837</v>
       </c>
       <c r="B26" t="n">
-        <v>8.15936</v>
+        <v>8.213270000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>8159.36</v>
+        <v>8213.27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775056</v>
+        <v>0.775014</v>
       </c>
       <c r="B27" t="n">
-        <v>8.18463</v>
+        <v>8.17272</v>
       </c>
       <c r="C27" t="n">
-        <v>8184.63</v>
+        <v>8172.72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8062279999999999</v>
+        <v>0.806187</v>
       </c>
       <c r="B28" t="n">
-        <v>8.207780000000001</v>
+        <v>8.13073</v>
       </c>
       <c r="C28" t="n">
-        <v>8207.780000000001</v>
+        <v>8130.73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837401</v>
+        <v>0.837359</v>
       </c>
       <c r="B29" t="n">
-        <v>8.229600000000001</v>
+        <v>8.086040000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>8229.6</v>
+        <v>8086.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868578</v>
+        <v>0.868536</v>
       </c>
       <c r="B30" t="n">
-        <v>8.24953</v>
+        <v>8.038399999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>8249.530000000001</v>
+        <v>8038.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89975</v>
+        <v>0.899709</v>
       </c>
       <c r="B31" t="n">
-        <v>8.267950000000001</v>
+        <v>7.98715</v>
       </c>
       <c r="C31" t="n">
-        <v>8267.950000000001</v>
+        <v>7987.15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9309229999999999</v>
+        <v>0.930881</v>
       </c>
       <c r="B32" t="n">
-        <v>8.285110000000001</v>
+        <v>7.932300000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>8285.110000000001</v>
+        <v>7932.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9621</v>
+        <v>0.962059</v>
       </c>
       <c r="B33" t="n">
-        <v>8.300790000000001</v>
+        <v>7.874090000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>8300.790000000001</v>
+        <v>7874.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993273</v>
+        <v>0.993231</v>
       </c>
       <c r="B34" t="n">
-        <v>8.315530000000001</v>
+        <v>7.81247</v>
       </c>
       <c r="C34" t="n">
-        <v>8315.530000000001</v>
+        <v>7812.47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02454</v>
       </c>
       <c r="B35" t="n">
-        <v>8.32897</v>
+        <v>7.74713</v>
       </c>
       <c r="C35" t="n">
-        <v>8328.969999999999</v>
+        <v>7747.13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05592</v>
       </c>
       <c r="B36" t="n">
-        <v>8.34155</v>
+        <v>7.67752</v>
       </c>
       <c r="C36" t="n">
-        <v>8341.549999999999</v>
+        <v>7677.52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.0873</v>
       </c>
       <c r="B37" t="n">
-        <v>8.35303</v>
+        <v>7.60421</v>
       </c>
       <c r="C37" t="n">
-        <v>8353.030000000001</v>
+        <v>7604.21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11873</v>
+        <v>1.11843</v>
       </c>
       <c r="B38" t="n">
-        <v>8.363709999999999</v>
+        <v>7.54751</v>
       </c>
       <c r="C38" t="n">
-        <v>8363.709999999999</v>
+        <v>7547.51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15011</v>
+        <v>1.14943</v>
       </c>
       <c r="B39" t="n">
-        <v>8.37346</v>
+        <v>7.53401</v>
       </c>
       <c r="C39" t="n">
-        <v>8373.459999999999</v>
+        <v>7534.01</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18149</v>
+        <v>1.18025</v>
       </c>
       <c r="B40" t="n">
-        <v>8.382379999999999</v>
+        <v>7.32504</v>
       </c>
       <c r="C40" t="n">
-        <v>8382.379999999999</v>
+        <v>7325.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21287</v>
+        <v>1.21131</v>
       </c>
       <c r="B41" t="n">
-        <v>8.390549999999999</v>
+        <v>7.20287</v>
       </c>
       <c r="C41" t="n">
-        <v>8390.549999999999</v>
+        <v>7202.87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24425</v>
+        <v>1.24224</v>
       </c>
       <c r="B42" t="n">
-        <v>8.397959999999999</v>
+        <v>7.12782</v>
       </c>
       <c r="C42" t="n">
-        <v>8397.959999999999</v>
+        <v>7127.82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27563</v>
+        <v>1.27318</v>
       </c>
       <c r="B43" t="n">
-        <v>8.40461</v>
+        <v>7.06526</v>
       </c>
       <c r="C43" t="n">
-        <v>8404.610000000001</v>
+        <v>7065.26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30701</v>
+        <v>1.30411</v>
       </c>
       <c r="B44" t="n">
-        <v>8.410590000000001</v>
+        <v>7.00231</v>
       </c>
       <c r="C44" t="n">
-        <v>8410.59</v>
+        <v>7002.31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33839</v>
+        <v>1.33504</v>
       </c>
       <c r="B45" t="n">
-        <v>8.415870000000002</v>
+        <v>6.87242</v>
       </c>
       <c r="C45" t="n">
-        <v>8415.870000000001</v>
+        <v>6872.42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36977</v>
+        <v>1.36598</v>
       </c>
       <c r="B46" t="n">
-        <v>8.420489999999999</v>
+        <v>6.76853</v>
       </c>
       <c r="C46" t="n">
-        <v>8420.49</v>
+        <v>6768.53</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40115</v>
+        <v>1.39691</v>
       </c>
       <c r="B47" t="n">
-        <v>8.42445</v>
+        <v>6.64934</v>
       </c>
       <c r="C47" t="n">
-        <v>8424.450000000001</v>
+        <v>6649.34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43253</v>
+        <v>1.42784</v>
       </c>
       <c r="B48" t="n">
-        <v>8.42775</v>
+        <v>6.5797</v>
       </c>
       <c r="C48" t="n">
-        <v>8427.75</v>
+        <v>6579.7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46391</v>
+        <v>1.45878</v>
       </c>
       <c r="B49" t="n">
-        <v>8.43041</v>
+        <v>6.44923</v>
       </c>
       <c r="C49" t="n">
-        <v>8430.41</v>
+        <v>6449.23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.495</v>
+        <v>1.48971</v>
       </c>
       <c r="B50" t="n">
-        <v>8.432459999999999</v>
+        <v>6.350000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>8432.459999999999</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52597</v>
+        <v>1.52064</v>
       </c>
       <c r="B51" t="n">
-        <v>8.433860000000001</v>
+        <v>6.22896</v>
       </c>
       <c r="C51" t="n">
-        <v>8433.860000000001</v>
+        <v>6228.96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55694</v>
+        <v>1.55136</v>
       </c>
       <c r="B52" t="n">
-        <v>8.43465</v>
+        <v>6.14842</v>
       </c>
       <c r="C52" t="n">
-        <v>8434.65</v>
+        <v>6148.42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.5879</v>
+        <v>1.58267</v>
       </c>
       <c r="B53" t="n">
-        <v>8.434809999999999</v>
+        <v>6.019970000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>8434.809999999999</v>
+        <v>6019.97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61887</v>
+        <v>1.61346</v>
       </c>
       <c r="B54" t="n">
-        <v>8.43426</v>
+        <v>5.89951</v>
       </c>
       <c r="C54" t="n">
-        <v>8434.26</v>
+        <v>5899.51</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64984</v>
+        <v>1.6446</v>
       </c>
       <c r="B55" t="n">
-        <v>8.432969999999999</v>
+        <v>5.7772</v>
       </c>
       <c r="C55" t="n">
-        <v>8432.969999999999</v>
+        <v>5777.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68081</v>
+        <v>1.67551</v>
       </c>
       <c r="B56" t="n">
-        <v>8.43106</v>
+        <v>5.66794</v>
       </c>
       <c r="C56" t="n">
-        <v>8431.059999999999</v>
+        <v>5667.94</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71151</v>
+        <v>1.70663</v>
       </c>
       <c r="B57" t="n">
-        <v>8.428540000000002</v>
+        <v>5.56962</v>
       </c>
       <c r="C57" t="n">
-        <v>8428.540000000001</v>
+        <v>5569.62</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74207</v>
+        <v>1.73747</v>
       </c>
       <c r="B58" t="n">
-        <v>8.42535</v>
+        <v>5.449479999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>8425.35</v>
+        <v>5449.48</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77262</v>
+        <v>1.7686</v>
       </c>
       <c r="B59" t="n">
-        <v>8.4216</v>
+        <v>5.34779</v>
       </c>
       <c r="C59" t="n">
-        <v>8421.6</v>
+        <v>5347.79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80318</v>
+        <v>1.79936</v>
       </c>
       <c r="B60" t="n">
-        <v>8.417200000000001</v>
+        <v>5.23195</v>
       </c>
       <c r="C60" t="n">
-        <v>8417.200000000001</v>
+        <v>5231.95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83373</v>
+        <v>1.83065</v>
       </c>
       <c r="B61" t="n">
-        <v>8.41221</v>
+        <v>5.15349</v>
       </c>
       <c r="C61" t="n">
-        <v>8412.209999999999</v>
+        <v>5153.49</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86471</v>
+        <v>1.86124</v>
       </c>
       <c r="B62" t="n">
-        <v>8.406469999999999</v>
+        <v>5.04532</v>
       </c>
       <c r="C62" t="n">
-        <v>8406.469999999999</v>
+        <v>5045.32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89629</v>
+        <v>1.89265</v>
       </c>
       <c r="B63" t="n">
-        <v>8.400030000000001</v>
+        <v>4.965800000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>8400.030000000001</v>
+        <v>4965.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92786</v>
+        <v>1.92329</v>
       </c>
       <c r="B64" t="n">
-        <v>8.392850000000001</v>
+        <v>4.86249</v>
       </c>
       <c r="C64" t="n">
-        <v>8392.85</v>
+        <v>4862.49</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95917</v>
+        <v>1.95421</v>
       </c>
       <c r="B65" t="n">
-        <v>8.385</v>
+        <v>4.7907</v>
       </c>
       <c r="C65" t="n">
-        <v>8385</v>
+        <v>4790.7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99032</v>
+        <v>1.98547</v>
       </c>
       <c r="B66" t="n">
-        <v>8.37642</v>
+        <v>4.705649999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>8376.42</v>
+        <v>4705.65</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02165</v>
+        <v>2.01608</v>
       </c>
       <c r="B67" t="n">
-        <v>8.367100000000001</v>
+        <v>4.63283</v>
       </c>
       <c r="C67" t="n">
-        <v>8367.1</v>
+        <v>4632.83</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05323</v>
+        <v>2.04741</v>
       </c>
       <c r="B68" t="n">
-        <v>8.357040000000001</v>
+        <v>4.55261</v>
       </c>
       <c r="C68" t="n">
-        <v>8357.040000000001</v>
+        <v>4552.61</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0844</v>
+        <v>2.07781</v>
       </c>
       <c r="B69" t="n">
-        <v>8.34605</v>
+        <v>4.490100000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>8346.049999999999</v>
+        <v>4490.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11512</v>
+        <v>2.10821</v>
       </c>
       <c r="B70" t="n">
-        <v>8.333909999999999</v>
+        <v>4.42265</v>
       </c>
       <c r="C70" t="n">
-        <v>8333.91</v>
+        <v>4422.65</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14584</v>
+        <v>2.14002</v>
       </c>
       <c r="B71" t="n">
-        <v>8.3207</v>
+        <v>4.36086</v>
       </c>
       <c r="C71" t="n">
-        <v>8320.700000000001</v>
+        <v>4360.86</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17656</v>
+        <v>2.17074</v>
       </c>
       <c r="B72" t="n">
-        <v>8.30674</v>
+        <v>4.29755</v>
       </c>
       <c r="C72" t="n">
-        <v>8306.74</v>
+        <v>4297.55</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20728</v>
+        <v>2.20145</v>
       </c>
       <c r="B73" t="n">
-        <v>8.292</v>
+        <v>4.255770000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>8292</v>
+        <v>4255.77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.238</v>
+        <v>2.23237</v>
       </c>
       <c r="B74" t="n">
-        <v>8.27632</v>
+        <v>4.21603</v>
       </c>
       <c r="C74" t="n">
-        <v>8276.32</v>
+        <v>4216.03</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26872</v>
+        <v>2.2635</v>
       </c>
       <c r="B75" t="n">
-        <v>8.2597</v>
+        <v>4.181850000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>8259.700000000001</v>
+        <v>4181.85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29944</v>
+        <v>2.29503</v>
       </c>
       <c r="B76" t="n">
-        <v>8.242049999999999</v>
+        <v>4.17213</v>
       </c>
       <c r="C76" t="n">
-        <v>8242.049999999999</v>
+        <v>4172.13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33016</v>
+        <v>2.32757</v>
       </c>
       <c r="B77" t="n">
-        <v>8.223409999999999</v>
+        <v>4.15489</v>
       </c>
       <c r="C77" t="n">
-        <v>8223.41</v>
+        <v>4154.89</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36088</v>
+        <v>2.35838</v>
       </c>
       <c r="B78" t="n">
-        <v>8.20351</v>
+        <v>4.14357</v>
       </c>
       <c r="C78" t="n">
-        <v>8203.51</v>
+        <v>4143.57</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3916</v>
+        <v>2.38864</v>
       </c>
       <c r="B79" t="n">
-        <v>8.182090000000001</v>
+        <v>4.1235</v>
       </c>
       <c r="C79" t="n">
-        <v>8182.09</v>
+        <v>4123.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42232</v>
+        <v>2.41889</v>
       </c>
       <c r="B80" t="n">
-        <v>8.15925</v>
+        <v>4.1062</v>
       </c>
       <c r="C80" t="n">
-        <v>8159.25</v>
+        <v>4106.2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45304</v>
+        <v>2.4518</v>
       </c>
       <c r="B81" t="n">
-        <v>8.13495</v>
+        <v>4.08786</v>
       </c>
       <c r="C81" t="n">
-        <v>8134.95</v>
+        <v>4087.86</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48376</v>
+        <v>2.48508</v>
       </c>
       <c r="B82" t="n">
-        <v>8.10923</v>
+        <v>4.07663</v>
       </c>
       <c r="C82" t="n">
-        <v>8109.23</v>
+        <v>4076.63</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51448</v>
+        <v>2.51778</v>
       </c>
       <c r="B83" t="n">
-        <v>8.081950000000001</v>
+        <v>4.04589</v>
       </c>
       <c r="C83" t="n">
-        <v>8081.95</v>
+        <v>4045.89</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.5452</v>
+        <v>2.54869</v>
       </c>
       <c r="B84" t="n">
-        <v>8.053189999999999</v>
+        <v>4.032360000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>8053.19</v>
+        <v>4032.36</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57592</v>
+        <v>2.57941</v>
       </c>
       <c r="B85" t="n">
-        <v>8.02281</v>
+        <v>4.00685</v>
       </c>
       <c r="C85" t="n">
-        <v>8022.81</v>
+        <v>4006.85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60664</v>
+        <v>2.61013</v>
       </c>
       <c r="B86" t="n">
-        <v>7.990760000000001</v>
+        <v>3.98383</v>
       </c>
       <c r="C86" t="n">
-        <v>7990.76</v>
+        <v>3983.83</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63736</v>
+        <v>2.64085</v>
       </c>
       <c r="B87" t="n">
-        <v>7.956930000000001</v>
+        <v>3.9597</v>
       </c>
       <c r="C87" t="n">
-        <v>7956.93</v>
+        <v>3959.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66748</v>
+        <v>2.67157</v>
       </c>
       <c r="B88" t="n">
-        <v>7.921390000000001</v>
+        <v>3.9308</v>
       </c>
       <c r="C88" t="n">
-        <v>7921.39</v>
+        <v>3930.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69862</v>
+        <v>2.70229</v>
       </c>
       <c r="B89" t="n">
-        <v>7.88252</v>
+        <v>3.91167</v>
       </c>
       <c r="C89" t="n">
-        <v>7882.52</v>
+        <v>3911.67</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73022</v>
+        <v>2.73209</v>
       </c>
       <c r="B90" t="n">
-        <v>7.840800000000001</v>
+        <v>3.88489</v>
       </c>
       <c r="C90" t="n">
-        <v>7840.8</v>
+        <v>3884.89</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.7613</v>
+        <v>2.76043</v>
       </c>
       <c r="B91" t="n">
-        <v>7.79742</v>
+        <v>3.86573</v>
       </c>
       <c r="C91" t="n">
-        <v>7797.42</v>
+        <v>3865.73</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79163</v>
+        <v>2.78859</v>
       </c>
       <c r="B92" t="n">
-        <v>7.752350000000001</v>
+        <v>3.84338</v>
       </c>
       <c r="C92" t="n">
-        <v>7752.35</v>
+        <v>3843.38</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.8227</v>
+        <v>2.81675</v>
       </c>
       <c r="B93" t="n">
-        <v>7.703939999999999</v>
+        <v>3.81376</v>
       </c>
       <c r="C93" t="n">
-        <v>7703.94</v>
+        <v>3813.76</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85421</v>
+        <v>2.84491</v>
       </c>
       <c r="B94" t="n">
-        <v>7.65164</v>
+        <v>3.79941</v>
       </c>
       <c r="C94" t="n">
-        <v>7651.64</v>
+        <v>3799.41</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88509</v>
+        <v>2.87622</v>
       </c>
       <c r="B95" t="n">
-        <v>7.59762</v>
+        <v>3.76823</v>
       </c>
       <c r="C95" t="n">
-        <v>7597.62</v>
+        <v>3768.23</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91537</v>
+        <v>2.91127</v>
       </c>
       <c r="B96" t="n">
-        <v>7.54203</v>
+        <v>3.74746</v>
       </c>
       <c r="C96" t="n">
-        <v>7542.03</v>
+        <v>3747.46</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94711</v>
+        <v>2.94647</v>
       </c>
       <c r="B97" t="n">
-        <v>7.48057</v>
+        <v>3.73008</v>
       </c>
       <c r="C97" t="n">
-        <v>7480.57</v>
+        <v>3730.08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97828</v>
+        <v>2.98059</v>
       </c>
       <c r="B98" t="n">
-        <v>7.41679</v>
+        <v>3.69699</v>
       </c>
       <c r="C98" t="n">
-        <v>7416.79</v>
+        <v>3696.99</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00897</v>
+        <v>3.01268</v>
       </c>
       <c r="B99" t="n">
-        <v>7.35128</v>
+        <v>3.67517</v>
       </c>
       <c r="C99" t="n">
-        <v>7351.28</v>
+        <v>3675.17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03936</v>
+        <v>3.04468</v>
       </c>
       <c r="B100" t="n">
-        <v>7.28316</v>
+        <v>3.65266</v>
       </c>
       <c r="C100" t="n">
-        <v>7283.16</v>
+        <v>3652.66</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07116</v>
+        <v>3.07668</v>
       </c>
       <c r="B101" t="n">
-        <v>7.20875</v>
+        <v>3.62949</v>
       </c>
       <c r="C101" t="n">
-        <v>7208.75</v>
+        <v>3629.49</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10244</v>
+        <v>3.10868</v>
       </c>
       <c r="B102" t="n">
-        <v>7.13318</v>
+        <v>3.60553</v>
       </c>
       <c r="C102" t="n">
-        <v>7133.18</v>
+        <v>3605.53</v>
       </c>
     </row>
   </sheetData>
